--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Rspo3-Fzd8.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Rspo3-Fzd8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,13 +79,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Rspo3</t>
   </si>
   <si>
     <t>Fzd8</t>
   </si>
   <si>
-    <t>sCs</t>
+    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.10200420334198</v>
+        <v>2.507621333333333</v>
       </c>
       <c r="H2">
-        <v>2.10200420334198</v>
+        <v>7.522864</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.9939780200440224</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9939780200440224</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>6.36158187001129</v>
+        <v>2.558821666666667</v>
       </c>
       <c r="N2">
-        <v>6.36158187001129</v>
+        <v>7.676465</v>
       </c>
       <c r="O2">
-        <v>0.7068375544046567</v>
+        <v>0.2156728774407755</v>
       </c>
       <c r="P2">
-        <v>0.7068375544046567</v>
+        <v>0.2156728774407755</v>
       </c>
       <c r="Q2">
-        <v>13.37207183066787</v>
+        <v>6.416555799528889</v>
       </c>
       <c r="R2">
-        <v>13.37207183066787</v>
+        <v>57.74900219576001</v>
       </c>
       <c r="S2">
-        <v>0.7068375544046567</v>
+        <v>0.2143740996957791</v>
       </c>
       <c r="T2">
-        <v>0.7068375544046567</v>
+        <v>0.2143740996957791</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,61 +581,309 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>2.507621333333333</v>
+      </c>
+      <c r="H3">
+        <v>7.522864</v>
+      </c>
+      <c r="I3">
+        <v>0.9939780200440224</v>
+      </c>
+      <c r="J3">
+        <v>0.9939780200440224</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>6.453984666666667</v>
+      </c>
+      <c r="N3">
+        <v>19.361954</v>
+      </c>
+      <c r="O3">
+        <v>0.5439806384912759</v>
+      </c>
+      <c r="P3">
+        <v>0.5439806384912759</v>
+      </c>
+      <c r="Q3">
+        <v>16.18414963513955</v>
+      </c>
+      <c r="R3">
+        <v>145.657346716256</v>
+      </c>
+      <c r="S3">
+        <v>0.5407047979898415</v>
+      </c>
+      <c r="T3">
+        <v>0.5407047979898415</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2.507621333333333</v>
+      </c>
+      <c r="H4">
+        <v>7.522864</v>
+      </c>
+      <c r="I4">
+        <v>0.9939780200440224</v>
+      </c>
+      <c r="J4">
+        <v>0.9939780200440224</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>2.851558333333334</v>
+      </c>
+      <c r="N4">
+        <v>8.554675000000001</v>
+      </c>
+      <c r="O4">
+        <v>0.2403464840679487</v>
+      </c>
+      <c r="P4">
+        <v>0.2403464840679487</v>
+      </c>
+      <c r="Q4">
+        <v>7.150628509911112</v>
+      </c>
+      <c r="R4">
+        <v>64.35565658920001</v>
+      </c>
+      <c r="S4">
+        <v>0.2388991223584018</v>
+      </c>
+      <c r="T4">
+        <v>0.2388991223584019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>2.10200420334198</v>
-      </c>
-      <c r="H3">
-        <v>2.10200420334198</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>2.63848020983875</v>
-      </c>
-      <c r="N3">
-        <v>2.63848020983875</v>
-      </c>
-      <c r="O3">
-        <v>0.2931624455953434</v>
-      </c>
-      <c r="P3">
-        <v>0.2931624455953434</v>
-      </c>
-      <c r="Q3">
-        <v>5.546096491515682</v>
-      </c>
-      <c r="R3">
-        <v>5.546096491515682</v>
-      </c>
-      <c r="S3">
-        <v>0.2931624455953434</v>
-      </c>
-      <c r="T3">
-        <v>0.2931624455953434</v>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.01519233333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.045577</v>
+      </c>
+      <c r="I5">
+        <v>0.006021979955977724</v>
+      </c>
+      <c r="J5">
+        <v>0.006021979955977723</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>2.558821666666667</v>
+      </c>
+      <c r="N5">
+        <v>7.676465</v>
+      </c>
+      <c r="O5">
+        <v>0.2156728774407755</v>
+      </c>
+      <c r="P5">
+        <v>0.2156728774407755</v>
+      </c>
+      <c r="Q5">
+        <v>0.03887447170055556</v>
+      </c>
+      <c r="R5">
+        <v>0.349870245305</v>
+      </c>
+      <c r="S5">
+        <v>0.00129877774499639</v>
+      </c>
+      <c r="T5">
+        <v>0.00129877774499639</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.01519233333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.045577</v>
+      </c>
+      <c r="I6">
+        <v>0.006021979955977724</v>
+      </c>
+      <c r="J6">
+        <v>0.006021979955977723</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>6.453984666666667</v>
+      </c>
+      <c r="N6">
+        <v>19.361954</v>
+      </c>
+      <c r="O6">
+        <v>0.5439806384912759</v>
+      </c>
+      <c r="P6">
+        <v>0.5439806384912759</v>
+      </c>
+      <c r="Q6">
+        <v>0.09805108638422223</v>
+      </c>
+      <c r="R6">
+        <v>0.882459777458</v>
+      </c>
+      <c r="S6">
+        <v>0.003275840501434428</v>
+      </c>
+      <c r="T6">
+        <v>0.003275840501434427</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.01519233333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.045577</v>
+      </c>
+      <c r="I7">
+        <v>0.006021979955977724</v>
+      </c>
+      <c r="J7">
+        <v>0.006021979955977723</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.851558333333334</v>
+      </c>
+      <c r="N7">
+        <v>8.554675000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.2403464840679487</v>
+      </c>
+      <c r="P7">
+        <v>0.2403464840679487</v>
+      </c>
+      <c r="Q7">
+        <v>0.04332182471944445</v>
+      </c>
+      <c r="R7">
+        <v>0.3898964224750001</v>
+      </c>
+      <c r="S7">
+        <v>0.001447361709546907</v>
+      </c>
+      <c r="T7">
+        <v>0.001447361709546907</v>
       </c>
     </row>
   </sheetData>
